--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Cd5l</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.4480189828133</v>
+        <v>4.859690000000001</v>
       </c>
       <c r="H2">
-        <v>2.4480189828133</v>
+        <v>14.57907</v>
       </c>
       <c r="I2">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="J2">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.431872445727902</v>
+        <v>0.5150980000000001</v>
       </c>
       <c r="N2">
-        <v>0.431872445727902</v>
+        <v>1.030196</v>
       </c>
       <c r="O2">
-        <v>0.07184009158186069</v>
+        <v>0.07656787870625796</v>
       </c>
       <c r="P2">
-        <v>0.07184009158186069</v>
+        <v>0.05529560532417913</v>
       </c>
       <c r="Q2">
-        <v>1.057231945295911</v>
+        <v>2.50321659962</v>
       </c>
       <c r="R2">
-        <v>1.057231945295911</v>
+        <v>15.01929959772</v>
       </c>
       <c r="S2">
-        <v>0.02511610968668389</v>
+        <v>0.03403609349329591</v>
       </c>
       <c r="T2">
-        <v>0.02511610968668389</v>
+        <v>0.02458010362024475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.4480189828133</v>
+        <v>4.859690000000001</v>
       </c>
       <c r="H3">
-        <v>2.4480189828133</v>
+        <v>14.57907</v>
       </c>
       <c r="I3">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="J3">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.31147044348916</v>
+        <v>1.497116333333333</v>
       </c>
       <c r="N3">
-        <v>1.31147044348916</v>
+        <v>4.491349</v>
       </c>
       <c r="O3">
-        <v>0.2181573696102967</v>
+        <v>0.2225421605593971</v>
       </c>
       <c r="P3">
-        <v>0.2181573696102967</v>
+        <v>0.2410724383293534</v>
       </c>
       <c r="Q3">
-        <v>3.210504541060041</v>
+        <v>7.275521273936667</v>
       </c>
       <c r="R3">
-        <v>3.210504541060041</v>
+        <v>65.47969146542999</v>
       </c>
       <c r="S3">
-        <v>0.07627028729281493</v>
+        <v>0.09892484826513341</v>
       </c>
       <c r="T3">
-        <v>0.07627028729281493</v>
+        <v>0.1071619612332824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.4480189828133</v>
+        <v>4.859690000000001</v>
       </c>
       <c r="H4">
-        <v>2.4480189828133</v>
+        <v>14.57907</v>
       </c>
       <c r="I4">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="J4">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745246077817846</v>
+        <v>0.9008219999999999</v>
       </c>
       <c r="N4">
-        <v>0.745246077817846</v>
+        <v>2.702466</v>
       </c>
       <c r="O4">
-        <v>0.1239684240359898</v>
+        <v>0.1339046737357332</v>
       </c>
       <c r="P4">
-        <v>0.1239684240359898</v>
+        <v>0.1450544297764824</v>
       </c>
       <c r="Q4">
-        <v>1.824376545365245</v>
+        <v>4.37771566518</v>
       </c>
       <c r="R4">
-        <v>1.824376545365245</v>
+        <v>39.39944098662</v>
       </c>
       <c r="S4">
-        <v>0.04334076512451761</v>
+        <v>0.05952355049489186</v>
       </c>
       <c r="T4">
-        <v>0.04334076512451761</v>
+        <v>0.06447986044421482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.4480189828133</v>
+        <v>4.859690000000001</v>
       </c>
       <c r="H5">
-        <v>2.4480189828133</v>
+        <v>14.57907</v>
       </c>
       <c r="I5">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="J5">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.20282776149234</v>
+        <v>2.363391666666667</v>
       </c>
       <c r="N5">
-        <v>2.20282776149234</v>
+        <v>7.090175</v>
       </c>
       <c r="O5">
-        <v>0.3664307591051548</v>
+        <v>0.3513115688057693</v>
       </c>
       <c r="P5">
-        <v>0.3664307591051548</v>
+        <v>0.3805640077027689</v>
       </c>
       <c r="Q5">
-        <v>5.392564176001376</v>
+        <v>11.48535084858334</v>
       </c>
       <c r="R5">
-        <v>5.392564176001376</v>
+        <v>103.36815763725</v>
       </c>
       <c r="S5">
-        <v>0.1281083436227649</v>
+        <v>0.156165661151748</v>
       </c>
       <c r="T5">
-        <v>0.1281083436227649</v>
+        <v>0.1691690087960629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4480189828133</v>
+        <v>4.859690000000001</v>
       </c>
       <c r="H6">
-        <v>2.4480189828133</v>
+        <v>14.57907</v>
       </c>
       <c r="I6">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="J6">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.34017506749956</v>
+        <v>0.414697</v>
       </c>
       <c r="N6">
-        <v>0.34017506749956</v>
+        <v>1.244091</v>
       </c>
       <c r="O6">
-        <v>0.05658663395819224</v>
+        <v>0.06164355053960423</v>
       </c>
       <c r="P6">
-        <v>0.05658663395819224</v>
+        <v>0.06677638519598536</v>
       </c>
       <c r="Q6">
-        <v>0.8327550227187185</v>
+        <v>2.01529886393</v>
       </c>
       <c r="R6">
-        <v>0.8327550227187185</v>
+        <v>18.13768977537</v>
       </c>
       <c r="S6">
-        <v>0.01978332813892241</v>
+        <v>0.02740190383847216</v>
       </c>
       <c r="T6">
-        <v>0.01978332813892241</v>
+        <v>0.02968356088842697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.4480189828133</v>
+        <v>4.859690000000001</v>
       </c>
       <c r="H7">
-        <v>2.4480189828133</v>
+        <v>14.57907</v>
       </c>
       <c r="I7">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="J7">
-        <v>0.3496113261223291</v>
+        <v>0.4445218291063105</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.979988036604529</v>
+        <v>1.036213</v>
       </c>
       <c r="N7">
-        <v>0.979988036604529</v>
+        <v>2.072426</v>
       </c>
       <c r="O7">
-        <v>0.1630167217085059</v>
+        <v>0.1540301676532382</v>
       </c>
       <c r="P7">
-        <v>0.1630167217085059</v>
+        <v>0.1112371336712308</v>
       </c>
       <c r="Q7">
-        <v>2.399029316537822</v>
+        <v>5.035673953970001</v>
       </c>
       <c r="R7">
-        <v>2.399029316537822</v>
+        <v>30.21404372382001</v>
       </c>
       <c r="S7">
-        <v>0.05699249225662543</v>
+        <v>0.06846977186276909</v>
       </c>
       <c r="T7">
-        <v>0.05699249225662543</v>
+        <v>0.04944733412407866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.55409679519996</v>
+        <v>6.046898666666667</v>
       </c>
       <c r="H8">
-        <v>4.55409679519996</v>
+        <v>18.140696</v>
       </c>
       <c r="I8">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="J8">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.431872445727902</v>
+        <v>0.5150980000000001</v>
       </c>
       <c r="N8">
-        <v>0.431872445727902</v>
+        <v>1.030196</v>
       </c>
       <c r="O8">
-        <v>0.07184009158186069</v>
+        <v>0.07656787870625796</v>
       </c>
       <c r="P8">
-        <v>0.07184009158186069</v>
+        <v>0.05529560532417913</v>
       </c>
       <c r="Q8">
-        <v>1.966788921024607</v>
+        <v>3.114745409402667</v>
       </c>
       <c r="R8">
-        <v>1.966788921024607</v>
+        <v>18.688472456416</v>
       </c>
       <c r="S8">
-        <v>0.04672398189517681</v>
+        <v>0.04235101588026254</v>
       </c>
       <c r="T8">
-        <v>0.04672398189517681</v>
+        <v>0.03058495414476777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.55409679519996</v>
+        <v>6.046898666666667</v>
       </c>
       <c r="H9">
-        <v>4.55409679519996</v>
+        <v>18.140696</v>
       </c>
       <c r="I9">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="J9">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.31147044348916</v>
+        <v>1.497116333333333</v>
       </c>
       <c r="N9">
-        <v>1.31147044348916</v>
+        <v>4.491349</v>
       </c>
       <c r="O9">
-        <v>0.2181573696102967</v>
+        <v>0.2225421605593971</v>
       </c>
       <c r="P9">
-        <v>0.2181573696102967</v>
+        <v>0.2410724383293534</v>
       </c>
       <c r="Q9">
-        <v>5.972563343693453</v>
+        <v>9.052910759878223</v>
       </c>
       <c r="R9">
-        <v>5.972563343693453</v>
+        <v>81.476196838904</v>
       </c>
       <c r="S9">
-        <v>0.1418870823174818</v>
+        <v>0.1230919118451254</v>
       </c>
       <c r="T9">
-        <v>0.1418870823174818</v>
+        <v>0.1333413284590006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.55409679519996</v>
+        <v>6.046898666666667</v>
       </c>
       <c r="H10">
-        <v>4.55409679519996</v>
+        <v>18.140696</v>
       </c>
       <c r="I10">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="J10">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.745246077817846</v>
+        <v>0.9008219999999999</v>
       </c>
       <c r="N10">
-        <v>0.745246077817846</v>
+        <v>2.702466</v>
       </c>
       <c r="O10">
-        <v>0.1239684240359898</v>
+        <v>0.1339046737357332</v>
       </c>
       <c r="P10">
-        <v>0.1239684240359898</v>
+        <v>0.1450544297764824</v>
       </c>
       <c r="Q10">
-        <v>3.393922774625592</v>
+        <v>5.447179350704</v>
       </c>
       <c r="R10">
-        <v>3.393922774625592</v>
+        <v>49.024614156336</v>
       </c>
       <c r="S10">
-        <v>0.08062765891147219</v>
+        <v>0.07406498729812551</v>
       </c>
       <c r="T10">
-        <v>0.08062765891147219</v>
+        <v>0.08023210989733406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.55409679519996</v>
+        <v>6.046898666666667</v>
       </c>
       <c r="H11">
-        <v>4.55409679519996</v>
+        <v>18.140696</v>
       </c>
       <c r="I11">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="J11">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.20282776149234</v>
+        <v>2.363391666666667</v>
       </c>
       <c r="N11">
-        <v>2.20282776149234</v>
+        <v>7.090175</v>
       </c>
       <c r="O11">
-        <v>0.3664307591051548</v>
+        <v>0.3513115688057693</v>
       </c>
       <c r="P11">
-        <v>0.3664307591051548</v>
+        <v>0.3805640077027689</v>
       </c>
       <c r="Q11">
-        <v>10.03189084898977</v>
+        <v>14.29118991797778</v>
       </c>
       <c r="R11">
-        <v>10.03189084898977</v>
+        <v>128.6207092618</v>
       </c>
       <c r="S11">
-        <v>0.2383224154823899</v>
+        <v>0.1943164951257433</v>
       </c>
       <c r="T11">
-        <v>0.2383224154823899</v>
+        <v>0.2104965242083825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.55409679519996</v>
+        <v>6.046898666666667</v>
       </c>
       <c r="H12">
-        <v>4.55409679519996</v>
+        <v>18.140696</v>
       </c>
       <c r="I12">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="J12">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.34017506749956</v>
+        <v>0.414697</v>
       </c>
       <c r="N12">
-        <v>0.34017506749956</v>
+        <v>1.244091</v>
       </c>
       <c r="O12">
-        <v>0.05658663395819224</v>
+        <v>0.06164355053960423</v>
       </c>
       <c r="P12">
-        <v>0.05658663395819224</v>
+        <v>0.06677638519598536</v>
       </c>
       <c r="Q12">
-        <v>1.549190184706676</v>
+        <v>2.507630736370667</v>
       </c>
       <c r="R12">
-        <v>1.549190184706676</v>
+        <v>22.568676627336</v>
       </c>
       <c r="S12">
-        <v>0.03680330581926983</v>
+        <v>0.03409611225921521</v>
       </c>
       <c r="T12">
-        <v>0.03680330581926983</v>
+        <v>0.03693517174102625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.55409679519996</v>
+        <v>6.046898666666667</v>
       </c>
       <c r="H13">
-        <v>4.55409679519996</v>
+        <v>18.140696</v>
       </c>
       <c r="I13">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="J13">
-        <v>0.650388673877671</v>
+        <v>0.5531172679177431</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.979988036604529</v>
+        <v>1.036213</v>
       </c>
       <c r="N13">
-        <v>0.979988036604529</v>
+        <v>2.072426</v>
       </c>
       <c r="O13">
-        <v>0.1630167217085059</v>
+        <v>0.1540301676532382</v>
       </c>
       <c r="P13">
-        <v>0.1630167217085059</v>
+        <v>0.1112371336712308</v>
       </c>
       <c r="Q13">
-        <v>4.462960376834986</v>
+        <v>6.265875008082667</v>
       </c>
       <c r="R13">
-        <v>4.462960376834986</v>
+        <v>37.59525004849601</v>
       </c>
       <c r="S13">
-        <v>0.1060242294518805</v>
+        <v>0.08519674550927103</v>
       </c>
       <c r="T13">
-        <v>0.1060242294518805</v>
+        <v>0.06152717946723195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02581033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.077431</v>
+      </c>
+      <c r="I14">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="J14">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5150980000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.030196</v>
+      </c>
+      <c r="O14">
+        <v>0.07656787870625796</v>
+      </c>
+      <c r="P14">
+        <v>0.05529560532417913</v>
+      </c>
+      <c r="Q14">
+        <v>0.01329485107933333</v>
+      </c>
+      <c r="R14">
+        <v>0.07976910647600001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001807693326995066</v>
+      </c>
+      <c r="T14">
+        <v>0.0001305475591666115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02581033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.077431</v>
+      </c>
+      <c r="I15">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="J15">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.497116333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.491349</v>
+      </c>
+      <c r="O15">
+        <v>0.2225421605593971</v>
+      </c>
+      <c r="P15">
+        <v>0.2410724383293534</v>
+      </c>
+      <c r="Q15">
+        <v>0.03864107160211111</v>
+      </c>
+      <c r="R15">
+        <v>0.347769644419</v>
+      </c>
+      <c r="S15">
+        <v>0.0005254004491382196</v>
+      </c>
+      <c r="T15">
+        <v>0.0005691486370704229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02581033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.077431</v>
+      </c>
+      <c r="I16">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="J16">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9008219999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.702466</v>
+      </c>
+      <c r="O16">
+        <v>0.1339046737357332</v>
+      </c>
+      <c r="P16">
+        <v>0.1450544297764824</v>
+      </c>
+      <c r="Q16">
+        <v>0.023250516094</v>
+      </c>
+      <c r="R16">
+        <v>0.209254644846</v>
+      </c>
+      <c r="S16">
+        <v>0.0003161359427158228</v>
+      </c>
+      <c r="T16">
+        <v>0.0003424594349335039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02581033333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.077431</v>
+      </c>
+      <c r="I17">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="J17">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.363391666666667</v>
+      </c>
+      <c r="N17">
+        <v>7.090175</v>
+      </c>
+      <c r="O17">
+        <v>0.3513115688057693</v>
+      </c>
+      <c r="P17">
+        <v>0.3805640077027689</v>
+      </c>
+      <c r="Q17">
+        <v>0.0609999267138889</v>
+      </c>
+      <c r="R17">
+        <v>0.548999340425</v>
+      </c>
+      <c r="S17">
+        <v>0.0008294125282779354</v>
+      </c>
+      <c r="T17">
+        <v>0.0008984746983235519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02581033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.077431</v>
+      </c>
+      <c r="I18">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="J18">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.414697</v>
+      </c>
+      <c r="N18">
+        <v>1.244091</v>
+      </c>
+      <c r="O18">
+        <v>0.06164355053960423</v>
+      </c>
+      <c r="P18">
+        <v>0.06677638519598536</v>
+      </c>
+      <c r="Q18">
+        <v>0.01070346780233333</v>
+      </c>
+      <c r="R18">
+        <v>0.09633121022100001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001455344419168533</v>
+      </c>
+      <c r="T18">
+        <v>0.0001576525665321443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02581033333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.077431</v>
+      </c>
+      <c r="I19">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="J19">
+        <v>0.002360902975946389</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.036213</v>
+      </c>
+      <c r="N19">
+        <v>2.072426</v>
+      </c>
+      <c r="O19">
+        <v>0.1540301676532382</v>
+      </c>
+      <c r="P19">
+        <v>0.1112371336712308</v>
+      </c>
+      <c r="Q19">
+        <v>0.02674500293433334</v>
+      </c>
+      <c r="R19">
+        <v>0.160470017606</v>
+      </c>
+      <c r="S19">
+        <v>0.0003636502811980513</v>
+      </c>
+      <c r="T19">
+        <v>0.0002626200799201551</v>
       </c>
     </row>
   </sheetData>
